--- a/corpus/update_data/data/ecovacs/sale/营销语料.xlsx
+++ b/corpus/update_data/data/ecovacs/sale/营销语料.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -515,10 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网购扫地机器人会不会很便宜？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网购擦窗机器人会不会很便宜？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,6 +636,18 @@
   <si>
     <t xml:space="preserve">旺宝想多和你沟通感情，听旺宝给您推荐DD56，能路径规划又有蓝鲸清洁系统，app远程操控，集众多优点于一身，你感兴趣么？
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网购扫地机器人会不会很便宜DD56？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网购扫地机器人会不会很便宜DG716？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网购扫地机器人会不会很便宜DG36？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,8 +938,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{004BA686-1B70-49E2-9A58-C6F03CCD3197}">
-  <header guid="{004BA686-1B70-49E2-9A58-C6F03CCD3197}" dateTime="2017-12-13T10:19:05" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7268D936-E038-4E15-9159-CE18A05F4C13}" diskRevisions="1" revisionId="3" version="2">
+  <header guid="{7268D936-E038-4E15-9159-CE18A05F4C13}" dateTime="2018-03-07T11:05:25" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -941,8 +949,51 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>网购扫地机器人会不会很便宜？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>网购扫地机器人会不会很便宜DD56？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>网购扫地机器人会不会很便宜？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>网购扫地机器人会不会很便宜DG716？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <t>网购扫地机器人会不会很便宜？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>网购扫地机器人会不会很便宜DG36？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1238,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1285,10 +1336,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1311,10 +1362,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -1337,10 +1388,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -1363,10 +1414,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -1389,10 +1440,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1404,10 +1455,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1415,7 +1466,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>31</v>
@@ -1441,7 +1492,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>32</v>
@@ -1467,7 +1518,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>33</v>
@@ -1493,7 +1544,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>34</v>
@@ -1519,7 +1570,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>35</v>
